--- a/DAVID/g1vRevDEGS.DAVID_withOverlaps.xlsx
+++ b/DAVID/g1vRevDEGS.DAVID_withOverlaps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\ABRG_GBIRG_OntologyStudy\DAVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\ABRF_GBIRG_OntologyStudy\DAVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217310E3-2BD5-44E7-B292-5DA3C8E82F60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0E9A13-02EC-4AD2-B8A3-F68EF7F9C395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -806,241 +806,205 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>4.59770114942528</v>
+        <v>20.689655172413701</v>
       </c>
       <c r="E2">
-        <v>2.7043183201025601E-2</v>
+        <v>3.1553643719040997E-5</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="H2">
-        <v>120</v>
+        <v>932</v>
       </c>
       <c r="I2">
-        <v>5293</v>
+        <v>13819</v>
       </c>
       <c r="J2">
-        <v>5.8811111111111103</v>
+        <v>3.1772685469037398</v>
       </c>
       <c r="K2">
-        <v>0.90792532971392004</v>
+        <v>3.68502811830717E-3</v>
       </c>
       <c r="L2">
-        <v>0.96333787761981604</v>
+        <v>3.6917763151278001E-3</v>
       </c>
       <c r="M2">
-        <v>96.333787761981597</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2">
-        <v>34</v>
-      </c>
-      <c r="P2">
-        <v>17</v>
-      </c>
-      <c r="Q2">
-        <v>8.7745228096401994E-33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2">
-        <v>110</v>
-      </c>
-      <c r="T2">
-        <v>124</v>
-      </c>
-      <c r="U2">
-        <v>6879</v>
-      </c>
-      <c r="V2">
-        <v>17.1470674486803</v>
-      </c>
-      <c r="W2">
-        <v>7.5460896162905704E-31</v>
-      </c>
-      <c r="X2">
-        <v>7.5460896162905704E-31</v>
-      </c>
-      <c r="Y2">
-        <v>6.0544207386517402E-29</v>
+        <v>0.36917763151277999</v>
       </c>
       <c r="Z2" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>8.0459770114942497</v>
+        <v>18.390804597701099</v>
       </c>
       <c r="E3">
-        <v>1.1511790132076999E-3</v>
+        <v>7.0262553245092104E-4</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="H3">
-        <v>225</v>
+        <v>986</v>
       </c>
       <c r="I3">
-        <v>5293</v>
+        <v>13819</v>
       </c>
       <c r="J3">
-        <v>5.4890370370370301</v>
+        <v>2.6695643774751199</v>
       </c>
       <c r="K3">
-        <v>9.53528177833107E-2</v>
+        <v>7.8945510683081199E-2</v>
       </c>
       <c r="L3">
-        <v>0.10015257414907</v>
+        <v>4.1103593648378803E-2</v>
       </c>
       <c r="M3">
-        <v>10.015257414907</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3">
-        <v>21</v>
-      </c>
-      <c r="P3">
-        <v>10.5</v>
-      </c>
-      <c r="Q3">
-        <v>1.9976222657498198E-9</v>
-      </c>
-      <c r="R3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3">
-        <v>110</v>
-      </c>
-      <c r="T3">
-        <v>254</v>
-      </c>
-      <c r="U3">
-        <v>6879</v>
-      </c>
-      <c r="V3">
-        <v>5.1703292770221898</v>
-      </c>
-      <c r="W3">
-        <v>1.7179550237944501E-7</v>
-      </c>
-      <c r="X3">
-        <v>2.8632585809080801E-8</v>
-      </c>
-      <c r="Y3">
-        <v>2.2972656056122999E-6</v>
+        <v>4.1103593648378798</v>
       </c>
       <c r="Z3" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>5.7471264367816</v>
+        <v>8.0459770114942497</v>
       </c>
       <c r="E4">
-        <v>9.8500377276896593E-3</v>
+        <v>1.1511790132076999E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="I4">
-        <v>12969</v>
+        <v>5293</v>
       </c>
       <c r="J4">
-        <v>5.8891108891108797</v>
+        <v>5.4890370370370301</v>
       </c>
       <c r="K4">
-        <v>0.99746843515207795</v>
+        <v>9.53528177833107E-2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.10015257414907</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>10.015257414907</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4">
+        <v>21</v>
+      </c>
+      <c r="P4">
+        <v>10.5</v>
+      </c>
+      <c r="Q4">
+        <v>1.9976222657498198E-9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4">
+        <v>110</v>
+      </c>
+      <c r="T4">
+        <v>254</v>
+      </c>
+      <c r="U4">
+        <v>6879</v>
+      </c>
+      <c r="V4">
+        <v>5.1703292770221898</v>
+      </c>
+      <c r="W4">
+        <v>1.7179550237944501E-7</v>
+      </c>
+      <c r="X4">
+        <v>2.8632585809080801E-8</v>
+      </c>
+      <c r="Y4">
+        <v>2.2972656056122999E-6</v>
       </c>
       <c r="Z4" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>2.29885057471264</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E5">
-        <v>9.9490148894165104E-2</v>
+        <v>7.1806893058182601E-3</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I5">
-        <v>7207</v>
+        <v>13084</v>
       </c>
       <c r="J5">
-        <v>18.7682291666666</v>
+        <v>6.4612345679012302</v>
       </c>
       <c r="K5">
-        <v>0.99995253161316799</v>
+        <v>0.78609242116737199</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1054,37 +1018,37 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>5.7471264367816</v>
+        <v>10.344827586206801</v>
       </c>
       <c r="E6">
-        <v>7.1806893058182601E-3</v>
+        <v>3.2050628883423002E-3</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H6">
-        <v>125</v>
+        <v>422</v>
       </c>
       <c r="I6">
-        <v>13084</v>
+        <v>12969</v>
       </c>
       <c r="J6">
-        <v>6.4612345679012302</v>
+        <v>3.5920785375761599</v>
       </c>
       <c r="K6">
-        <v>0.78609242116737199</v>
+        <v>0.85614751331473204</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1098,87 +1062,123 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4.59770114942528</v>
+      </c>
+      <c r="E7">
+        <v>2.7043183201025601E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>120</v>
+      </c>
+      <c r="I7">
+        <v>5293</v>
+      </c>
+      <c r="J7">
+        <v>5.8811111111111103</v>
+      </c>
+      <c r="K7">
+        <v>0.90792532971392004</v>
+      </c>
+      <c r="L7">
+        <v>0.96333787761981604</v>
+      </c>
+      <c r="M7">
+        <v>96.333787761981597</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7">
         <v>34</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5.7471264367816</v>
-      </c>
-      <c r="E7">
-        <v>4.53344979361733E-2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <v>77</v>
-      </c>
-      <c r="H7">
-        <v>229</v>
-      </c>
-      <c r="I7">
-        <v>12969</v>
-      </c>
-      <c r="J7">
-        <v>3.6774797255146598</v>
-      </c>
-      <c r="K7">
-        <v>0.99999999999932299</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>100</v>
+      <c r="P7">
+        <v>17</v>
+      </c>
+      <c r="Q7">
+        <v>8.7745228096401994E-33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7">
+        <v>110</v>
+      </c>
+      <c r="T7">
+        <v>124</v>
+      </c>
+      <c r="U7">
+        <v>6879</v>
+      </c>
+      <c r="V7">
+        <v>17.1470674486803</v>
+      </c>
+      <c r="W7">
+        <v>7.5460896162905704E-31</v>
+      </c>
+      <c r="X7">
+        <v>7.5460896162905704E-31</v>
+      </c>
+      <c r="Y7">
+        <v>6.0544207386517402E-29</v>
       </c>
       <c r="Z7" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>2.29885057471264</v>
+        <v>4.59770114942528</v>
       </c>
       <c r="E8">
-        <v>7.6668627612348397E-2</v>
+        <v>3.3218547504131599E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G8">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="I8">
-        <v>13084</v>
+        <v>5293</v>
       </c>
       <c r="J8">
-        <v>24.850902184235501</v>
+        <v>5.4287179487179396</v>
       </c>
       <c r="K8">
-        <v>0.99999996140556402</v>
+        <v>0.94708692914131598</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.96333787761981604</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>96.333787761981597</v>
       </c>
       <c r="Z8" t="s">
         <v>114</v>
@@ -1186,43 +1186,43 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>20.689655172413701</v>
+        <v>10.344827586206801</v>
       </c>
       <c r="E9">
-        <v>3.1553643719040997E-5</v>
+        <v>5.1087817036331298E-3</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G9">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H9">
-        <v>932</v>
+        <v>456</v>
       </c>
       <c r="I9">
-        <v>13819</v>
+        <v>12969</v>
       </c>
       <c r="J9">
-        <v>3.1772685469037398</v>
+        <v>3.3242481203007501</v>
       </c>
       <c r="K9">
-        <v>3.68502811830717E-3</v>
+        <v>0.95466215623252804</v>
       </c>
       <c r="L9">
-        <v>3.6917763151278001E-3</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.36917763151277999</v>
+        <v>100</v>
       </c>
       <c r="Z9" t="s">
         <v>114</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -1242,25 +1242,25 @@
         <v>3.44827586206896</v>
       </c>
       <c r="E10">
-        <v>3.5918849743454502E-2</v>
+        <v>6.0139282875723704E-3</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>77</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I10">
         <v>12969</v>
       </c>
       <c r="J10">
-        <v>9.9075630252100808</v>
+        <v>25.264285714285698</v>
       </c>
       <c r="K10">
-        <v>0.99999999974613096</v>
+        <v>0.97383621850895496</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1274,37 +1274,37 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>2.29885057471264</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E11">
-        <v>6.5262982407292003E-2</v>
+        <v>3.7581307922954998E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="G11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="I11">
-        <v>13084</v>
+        <v>13819</v>
       </c>
       <c r="J11">
-        <v>29.369248035914701</v>
+        <v>3.9169501133786802</v>
       </c>
       <c r="K11">
-        <v>0.99999946600081602</v>
+        <v>0.98868658378497698</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1318,37 +1318,37 @@
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>3.44827586206896</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E12">
-        <v>6.0139282875723704E-3</v>
+        <v>9.0600963070554999E-2</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="G12">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>12969</v>
+        <v>1433</v>
       </c>
       <c r="J12">
-        <v>25.264285714285698</v>
+        <v>19.106666666666602</v>
       </c>
       <c r="K12">
-        <v>0.97383621850895496</v>
+        <v>0.98952351688719098</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1362,37 +1362,37 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>5.7471264367816</v>
+        <v>3.44827586206896</v>
       </c>
       <c r="E13">
-        <v>2.9480608192346401E-2</v>
+        <v>3.8941133074670599E-2</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="G13">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H13">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="I13">
-        <v>13084</v>
+        <v>13819</v>
       </c>
       <c r="J13">
-        <v>4.2285566543856197</v>
+        <v>9.4910714285714199</v>
       </c>
       <c r="K13">
-        <v>0.99834460163974703</v>
+        <v>0.99041154079585303</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1418,25 +1418,25 @@
         <v>3.44827586206896</v>
       </c>
       <c r="E14">
-        <v>5.6314141061325602E-2</v>
+        <v>4.96786060935928E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G14">
         <v>48</v>
       </c>
       <c r="H14">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I14">
         <v>7207</v>
       </c>
       <c r="J14">
-        <v>7.6345338983050803</v>
+        <v>8.1897727272727199</v>
       </c>
       <c r="K14">
-        <v>0.99593923846544397</v>
+        <v>0.99209870818095502</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1462,25 +1462,25 @@
         <v>3.44827586206896</v>
       </c>
       <c r="E15">
-        <v>9.4042676771973102E-2</v>
+        <v>5.6314141061325602E-2</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H15">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="I15">
-        <v>12969</v>
+        <v>7207</v>
       </c>
       <c r="J15">
-        <v>5.7418831168831099</v>
+        <v>7.6345338983050803</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.99593923846544397</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1494,43 +1494,43 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>4.59770114942528</v>
+        <v>6.8965517241379297</v>
       </c>
       <c r="E16">
-        <v>3.3218547504131599E-2</v>
+        <v>2.6145220229162901E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="H16">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="I16">
-        <v>5293</v>
+        <v>13084</v>
       </c>
       <c r="J16">
-        <v>5.4287179487179396</v>
+        <v>3.5371722087050501</v>
       </c>
       <c r="K16">
-        <v>0.94708692914131598</v>
+        <v>0.99655047867806801</v>
       </c>
       <c r="L16">
-        <v>0.96333787761981604</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>96.333787761981597</v>
+        <v>100</v>
       </c>
       <c r="Z16" t="s">
         <v>114</v>
@@ -1538,37 +1538,37 @@
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>2.29885057471264</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E17">
-        <v>9.3566571147027905E-2</v>
+        <v>9.8500377276896593E-3</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="I17">
-        <v>7207</v>
+        <v>12969</v>
       </c>
       <c r="J17">
-        <v>20.0194444444444</v>
+        <v>5.8891108891108797</v>
       </c>
       <c r="K17">
-        <v>0.99991150641186699</v>
+        <v>0.99746843515207795</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1582,37 +1582,37 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>11.4942528735632</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E18">
-        <v>4.2154163687026097E-2</v>
+        <v>2.9480608192346401E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G18">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H18">
-        <v>795</v>
+        <v>191</v>
       </c>
       <c r="I18">
-        <v>12969</v>
+        <v>13084</v>
       </c>
       <c r="J18">
-        <v>2.1185983827493202</v>
+        <v>4.2285566543856197</v>
       </c>
       <c r="K18">
-        <v>0.99999999999495803</v>
+        <v>0.99834460163974703</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1626,37 +1626,37 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>3.44827586206896</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E19">
-        <v>1.59124848086112E-2</v>
+        <v>9.3566571147027905E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G19">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>12969</v>
+        <v>7207</v>
       </c>
       <c r="J19">
-        <v>15.3116883116883</v>
+        <v>20.0194444444444</v>
       </c>
       <c r="K19">
-        <v>0.99993800336198402</v>
+        <v>0.99991150641186699</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -1682,25 +1682,25 @@
         <v>3.44827586206896</v>
       </c>
       <c r="E20">
-        <v>1.8773546862094499E-2</v>
+        <v>1.59124848086112E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20">
         <v>77</v>
       </c>
       <c r="H20">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I20">
         <v>12969</v>
       </c>
       <c r="J20">
-        <v>14.035714285714199</v>
+        <v>15.3116883116883</v>
       </c>
       <c r="K20">
-        <v>0.99998931865945595</v>
+        <v>0.99993800336198402</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1714,37 +1714,37 @@
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>4.59770114942528</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E21">
-        <v>7.1563887125326298E-2</v>
+        <v>9.9490148894165104E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G21">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H21">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I21">
-        <v>12969</v>
+        <v>7207</v>
       </c>
       <c r="J21">
-        <v>4.1080139372822302</v>
+        <v>18.7682291666666</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.99995253161316799</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1758,37 +1758,37 @@
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>4.59770114942528</v>
+        <v>6.8965517241379297</v>
       </c>
       <c r="E22">
-        <v>5.1540462550434998E-2</v>
+        <v>1.6577697574702E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G22">
         <v>77</v>
       </c>
       <c r="H22">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="I22">
         <v>12969</v>
       </c>
       <c r="J22">
-        <v>4.7112887112887103</v>
+        <v>3.9786276715410498</v>
       </c>
       <c r="K22">
-        <v>0.99999999999998601</v>
+        <v>0.99995879099680596</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1802,37 +1802,37 @@
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>2.29885057471264</v>
+        <v>3.44827586206896</v>
       </c>
       <c r="E23">
-        <v>2.32379334150602E-2</v>
+        <v>1.8773546862094499E-2</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>77</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I23">
         <v>12969</v>
       </c>
       <c r="J23">
-        <v>84.214285714285694</v>
+        <v>14.035714285714199</v>
       </c>
       <c r="K23">
-        <v>0.99999932012953696</v>
+        <v>0.99998931865945595</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1846,37 +1846,37 @@
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>3.44827586206896</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E24">
-        <v>3.7216486222019E-2</v>
+        <v>2.32379334150602E-2</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G24">
         <v>77</v>
       </c>
       <c r="H24">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>12969</v>
       </c>
       <c r="J24">
-        <v>9.71703296703296</v>
+        <v>84.214285714285694</v>
       </c>
       <c r="K24">
-        <v>0.99999999988746102</v>
+        <v>0.99999932012953696</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -1890,37 +1890,37 @@
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>6.8965517241379297</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E25">
-        <v>6.10178471295275E-2</v>
+        <v>6.5262982407292003E-2</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G25">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H25">
-        <v>362</v>
+        <v>11</v>
       </c>
       <c r="I25">
-        <v>12969</v>
+        <v>13084</v>
       </c>
       <c r="J25">
-        <v>2.7916337805840499</v>
+        <v>29.369248035914701</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0.99999946600081602</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -1946,7 +1946,7 @@
         <v>2.29885057471264</v>
       </c>
       <c r="E26">
-        <v>8.2319802716436602E-2</v>
+        <v>6.5262982407292003E-2</v>
       </c>
       <c r="F26" t="s">
         <v>82</v>
@@ -1955,16 +1955,16 @@
         <v>81</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I26">
         <v>13084</v>
       </c>
       <c r="J26">
-        <v>23.075837742504401</v>
+        <v>29.369248035914701</v>
       </c>
       <c r="K26">
-        <v>0.99999998962588399</v>
+        <v>0.99999946600081602</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -1978,37 +1978,37 @@
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>6.8965517241379297</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E27">
-        <v>2.6145220229162901E-2</v>
+        <v>7.6668627612348397E-2</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="G27">
         <v>81</v>
       </c>
       <c r="H27">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="I27">
         <v>13084</v>
       </c>
       <c r="J27">
-        <v>3.5371722087050501</v>
+        <v>24.850902184235501</v>
       </c>
       <c r="K27">
-        <v>0.99655047867806801</v>
+        <v>0.99999996140556402</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2022,37 +2022,37 @@
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>3.44827586206896</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E28">
-        <v>4.96786060935928E-2</v>
+        <v>8.2319802716436602E-2</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G28">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H28">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="I28">
-        <v>7207</v>
+        <v>13084</v>
       </c>
       <c r="J28">
-        <v>8.1897727272727199</v>
+        <v>23.075837742504401</v>
       </c>
       <c r="K28">
-        <v>0.99209870818095502</v>
+        <v>0.99999998962588399</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2066,37 +2066,37 @@
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>6.8965517241379297</v>
+        <v>8.0459770114942497</v>
       </c>
       <c r="E29">
-        <v>1.6577697574702E-2</v>
+        <v>3.32257905104184E-2</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G29">
         <v>77</v>
       </c>
       <c r="H29">
-        <v>254</v>
+        <v>411</v>
       </c>
       <c r="I29">
         <v>12969</v>
       </c>
       <c r="J29">
-        <v>3.9786276715410498</v>
+        <v>2.86861313868613</v>
       </c>
       <c r="K29">
-        <v>0.99995879099680596</v>
+        <v>0.99999999863121802</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2110,37 +2110,37 @@
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>5.7471264367816</v>
+        <v>3.44827586206896</v>
       </c>
       <c r="E30">
-        <v>3.7581307922954998E-2</v>
+        <v>3.5918849743454502E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="G30">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H30">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="I30">
-        <v>13819</v>
+        <v>12969</v>
       </c>
       <c r="J30">
-        <v>3.9169501133786802</v>
+        <v>9.9075630252100808</v>
       </c>
       <c r="K30">
-        <v>0.98868658378497698</v>
+        <v>0.99999999974613096</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -2166,25 +2166,25 @@
         <v>2.29885057471264</v>
       </c>
       <c r="E31">
-        <v>6.5262982407292003E-2</v>
+        <v>9.9069195310893199E-2</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="G31">
         <v>81</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I31">
         <v>13084</v>
       </c>
       <c r="J31">
-        <v>29.369248035914701</v>
+        <v>19.003631082062402</v>
       </c>
       <c r="K31">
-        <v>0.99999946600081602</v>
+        <v>0.99999999979864196</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2198,37 +2198,37 @@
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>10.344827586206801</v>
+        <v>4.59770114942528</v>
       </c>
       <c r="E32">
-        <v>5.1087817036331298E-3</v>
+        <v>3.69458572910338E-2</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G32">
         <v>77</v>
       </c>
       <c r="H32">
-        <v>456</v>
+        <v>125</v>
       </c>
       <c r="I32">
         <v>12969</v>
       </c>
       <c r="J32">
-        <v>3.3242481203007501</v>
+        <v>5.3897142857142804</v>
       </c>
       <c r="K32">
-        <v>0.95466215623252804</v>
+        <v>0.99999999986664001</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2242,37 +2242,37 @@
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>2.29885057471264</v>
+        <v>3.44827586206896</v>
       </c>
       <c r="E33">
-        <v>9.5141850175178802E-2</v>
+        <v>3.7216486222019E-2</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G33">
         <v>77</v>
       </c>
       <c r="H33">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I33">
         <v>12969</v>
       </c>
       <c r="J33">
-        <v>19.815126050420101</v>
+        <v>9.71703296703296</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0.99999999988746102</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2286,37 +2286,37 @@
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>8.0459770114942497</v>
+        <v>11.4942528735632</v>
       </c>
       <c r="E34">
-        <v>3.32257905104184E-2</v>
+        <v>4.2154163687026097E-2</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="G34">
         <v>77</v>
       </c>
       <c r="H34">
-        <v>411</v>
+        <v>795</v>
       </c>
       <c r="I34">
         <v>12969</v>
       </c>
       <c r="J34">
-        <v>2.86861313868613</v>
+        <v>2.1185983827493202</v>
       </c>
       <c r="K34">
-        <v>0.99999999863121802</v>
+        <v>0.99999999999495803</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -2330,37 +2330,37 @@
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>2.29885057471264</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E35">
-        <v>9.0600963070554999E-2</v>
+        <v>4.53344979361733E-2</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="I35">
-        <v>1433</v>
+        <v>12969</v>
       </c>
       <c r="J35">
-        <v>19.106666666666602</v>
+        <v>3.6774797255146598</v>
       </c>
       <c r="K35">
-        <v>0.98952351688719098</v>
+        <v>0.99999999999932299</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -2386,25 +2386,25 @@
         <v>4.59770114942528</v>
       </c>
       <c r="E36">
-        <v>3.69458572910338E-2</v>
+        <v>5.1540462550434998E-2</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="G36">
         <v>77</v>
       </c>
       <c r="H36">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I36">
         <v>12969</v>
       </c>
       <c r="J36">
-        <v>5.3897142857142804</v>
+        <v>4.7112887112887103</v>
       </c>
       <c r="K36">
-        <v>0.99999999986664001</v>
+        <v>0.99999999999998601</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2418,34 +2418,34 @@
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>2.29885057471264</v>
+        <v>3.44827586206896</v>
       </c>
       <c r="E37">
-        <v>8.4429809883401194E-2</v>
+        <v>9.4042676771973102E-2</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="G37">
         <v>77</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I37">
         <v>12969</v>
       </c>
       <c r="J37">
-        <v>22.457142857142799</v>
+        <v>5.7418831168831099</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2462,37 +2462,37 @@
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>2.29885057471264</v>
+        <v>4.59770114942528</v>
       </c>
       <c r="E38">
-        <v>9.9069195310893199E-2</v>
+        <v>7.1563887125326298E-2</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="G38">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="I38">
-        <v>13084</v>
+        <v>12969</v>
       </c>
       <c r="J38">
-        <v>19.003631082062402</v>
+        <v>4.1080139372822302</v>
       </c>
       <c r="K38">
-        <v>0.99999999979864196</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2506,37 +2506,37 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>10.344827586206801</v>
+        <v>6.8965517241379297</v>
       </c>
       <c r="E39">
-        <v>3.2050628883423002E-3</v>
+        <v>6.10178471295275E-2</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="G39">
         <v>77</v>
       </c>
       <c r="H39">
-        <v>422</v>
+        <v>362</v>
       </c>
       <c r="I39">
         <v>12969</v>
       </c>
       <c r="J39">
-        <v>3.5920785375761599</v>
+        <v>2.7916337805840499</v>
       </c>
       <c r="K39">
-        <v>0.85614751331473204</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2550,43 +2550,43 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>18.390804597701099</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E40">
-        <v>7.0262553245092104E-4</v>
+        <v>9.5141850175178802E-2</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G40">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H40">
-        <v>986</v>
+        <v>17</v>
       </c>
       <c r="I40">
-        <v>13819</v>
+        <v>12969</v>
       </c>
       <c r="J40">
-        <v>2.6695643774751199</v>
+        <v>19.815126050420101</v>
       </c>
       <c r="K40">
-        <v>7.8945510683081199E-2</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>4.1103593648378803E-2</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>4.1103593648378798</v>
+        <v>100</v>
       </c>
       <c r="Z40" t="s">
         <v>114</v>
@@ -2594,34 +2594,34 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>5.7471264367816</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E41">
-        <v>8.6875128116169903E-2</v>
+        <v>8.4429809883401194E-2</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G41">
         <v>77</v>
       </c>
       <c r="H41">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c r="I41">
         <v>12969</v>
       </c>
       <c r="J41">
-        <v>2.9445554445554398</v>
+        <v>22.457142857142799</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -2638,37 +2638,37 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>3.44827586206896</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E42">
-        <v>3.8941133074670599E-2</v>
+        <v>8.6875128116169903E-2</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G42">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H42">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="I42">
-        <v>13819</v>
+        <v>12969</v>
       </c>
       <c r="J42">
-        <v>9.4910714285714199</v>
+        <v>2.9445554445554398</v>
       </c>
       <c r="K42">
-        <v>0.99041154079585303</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2682,7 +2682,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:Z42">
-    <sortCondition ref="Z1"/>
+    <sortCondition ref="K1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DAVID/g1vRevDEGS.DAVID_withOverlaps.xlsx
+++ b/DAVID/g1vRevDEGS.DAVID_withOverlaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\ABRF_GBIRG_OntologyStudy\DAVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\DAVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0E9A13-02EC-4AD2-B8A3-F68EF7F9C395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB554D7A-9B48-49AD-88C5-509AC5F71A43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,238 +130,238 @@
     <t>ENSG00000125845, ENSG00000153071, ENSG00000166923, ENSG00000120738, ENSG00000115457</t>
   </si>
   <si>
+    <t>GO:0031594~neuromuscular junction</t>
+  </si>
+  <si>
+    <t>GOTERM_CC_DIRECT</t>
+  </si>
+  <si>
+    <t>ENSG00000105894, ENSG00000130477, ENSG00000116396</t>
+  </si>
+  <si>
+    <t>GO:0005125~cytokine activity</t>
+  </si>
+  <si>
+    <t>GOTERM_MF_DIRECT</t>
+  </si>
+  <si>
+    <t>ENSG00000164761, ENSG00000137033, ENSG00000125845, ENSG00000166923, ENSG00000171951</t>
+  </si>
+  <si>
+    <t>GO:0007399~nervous system development</t>
+  </si>
+  <si>
+    <t>ENSG00000105894, ENSG00000151892, ENSG00000168874, ENSG00000108947, ENSG00000170345</t>
+  </si>
+  <si>
+    <t>GO:0004745~retinol dehydrogenase activity</t>
+  </si>
+  <si>
+    <t>ENSG00000121039, ENSG00000125845</t>
+  </si>
+  <si>
+    <t>GO:0005615~extracellular space</t>
+  </si>
+  <si>
+    <t>ENSG00000105894, ENSG00000154175, ENSG00000099139, ENSG00000187908, ENSG00000197632, ENSG00000115457, ENSG00000171951, ENSG00000205426, ENSG00000164761, ENSG00000137573, ENSG00000125845, ENSG00000137033, ENSG00000167772, ENSG00000169067, ENSG00000163898, ENSG00000102854, ENSG00000166923, ENSG00000125730</t>
+  </si>
+  <si>
+    <t>GO:0060395~SMAD protein signal transduction</t>
+  </si>
+  <si>
+    <t>ENSG00000168874, ENSG00000125845, ENSG00000170345</t>
+  </si>
+  <si>
+    <t>GO:0004861~cyclin-dependent protein serine/threonine kinase inhibitor activity</t>
+  </si>
+  <si>
+    <t>ENSG00000123080, ENSG00000168517</t>
+  </si>
+  <si>
+    <t>GO:0001937~negative regulation of endothelial cell proliferation</t>
+  </si>
+  <si>
+    <t>ENSG00000168874, ENSG00000137573, ENSG00000171951</t>
+  </si>
+  <si>
+    <t>GO:0001077~transcriptional activator activity, RNA polymerase II core promoter proximal region sequence-specific binding</t>
+  </si>
+  <si>
+    <t>ENSG00000101096, ENSG00000105516, ENSG00000185697, ENSG00000120738, ENSG00000170345</t>
+  </si>
+  <si>
+    <t>R-HSA-2559580:R-HSA-2559580</t>
+  </si>
+  <si>
+    <t>REACTOME_PATHWAY</t>
+  </si>
+  <si>
+    <t>ENSG00000123080, ENSG00000173894, ENSG00000170345</t>
+  </si>
+  <si>
+    <t>GO:0010951~negative regulation of endopeptidase activity</t>
+  </si>
+  <si>
+    <t>ENSG00000197632, ENSG00000164611, ENSG00000125730</t>
+  </si>
+  <si>
+    <t>hsa05161:Hepatitis B</t>
+  </si>
+  <si>
+    <t>ENSG00000101096, ENSG00000146592, ENSG00000089685, ENSG00000170345</t>
+  </si>
+  <si>
+    <t>R-HSA-156711:R-HSA-156711</t>
+  </si>
+  <si>
+    <t>ENSG00000111206, ENSG00000157456</t>
+  </si>
+  <si>
+    <t>GO:0045944~positive regulation of transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>ENSG00000101096, ENSG00000137033, ENSG00000125845, ENSG00000111206, ENSG00000105516, ENSG00000185697, ENSG00000166923, ENSG00000120738, ENSG00000170345, ENSG00000162772</t>
+  </si>
+  <si>
+    <t>GO:0030199~collagen fibril organization</t>
+  </si>
+  <si>
+    <t>ENSG00000099953, ENSG00000166923, ENSG00000138316</t>
+  </si>
+  <si>
+    <t>GO:0035914~skeletal muscle cell differentiation</t>
+  </si>
+  <si>
+    <t>ENSG00000120738, ENSG00000170345, ENSG00000162772</t>
+  </si>
+  <si>
+    <t>GO:0007267~cell-cell signaling</t>
+  </si>
+  <si>
+    <t>ENSG00000108947, ENSG00000125845, ENSG00000099139, ENSG00000166923</t>
+  </si>
+  <si>
+    <t>GO:0001666~response to hypoxia</t>
+  </si>
+  <si>
+    <t>ENSG00000167772, ENSG00000125845, ENSG00000120738, ENSG00000168209</t>
+  </si>
+  <si>
+    <t>GO:0035860~glial cell-derived neurotrophic factor receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>ENSG00000151892, ENSG00000137573</t>
+  </si>
+  <si>
+    <t>GO:0060337~type I interferon signaling pathway</t>
+  </si>
+  <si>
+    <t>ENSG00000126709, ENSG00000089127, ENSG00000120738</t>
+  </si>
+  <si>
+    <t>GO:0008284~positive regulation of cell proliferation</t>
+  </si>
+  <si>
+    <t>ENSG00000105894, ENSG00000117399, ENSG00000111206, ENSG00000166923, ENSG00000089685, ENSG00000162772</t>
+  </si>
+  <si>
+    <t>GO:0008484~sulfuric ester hydrolase activity</t>
+  </si>
+  <si>
+    <t>ENSG00000137573, ENSG00000183876</t>
+  </si>
+  <si>
+    <t>GO:0005102~receptor binding</t>
+  </si>
+  <si>
+    <t>ENSG00000151892, ENSG00000125845, ENSG00000131094, ENSG00000109255, ENSG00000115457, ENSG00000125730</t>
+  </si>
+  <si>
+    <t>R-HSA-909733:R-HSA-909733</t>
+  </si>
+  <si>
+    <t>GO:0042493~response to drug</t>
+  </si>
+  <si>
+    <t>ENSG00000105894, ENSG00000101096, ENSG00000164761, ENSG00000115457, ENSG00000170345, ENSG00000171303</t>
+  </si>
+  <si>
+    <t>GO:0005578~proteinaceous extracellular matrix</t>
+  </si>
+  <si>
+    <t>ENSG00000164761, ENSG00000167772, ENSG00000125966, ENSG00000099953, ENSG00000138316</t>
+  </si>
+  <si>
+    <t>GO:0004065~arylsulfatase activity</t>
+  </si>
+  <si>
+    <t>GO:0045893~positive regulation of transcription, DNA-templated</t>
+  </si>
+  <si>
+    <t>ENSG00000101096, ENSG00000168874, ENSG00000125845, ENSG00000111206, ENSG00000146592, ENSG00000153071, ENSG00000185697, ENSG00000120738, ENSG00000170345</t>
+  </si>
+  <si>
+    <t>GO:0044849~estrous cycle</t>
+  </si>
+  <si>
+    <t>ENSG00000105894, ENSG00000120738</t>
+  </si>
+  <si>
+    <t>GO:0045892~negative regulation of transcription, DNA-templated</t>
+  </si>
+  <si>
+    <t>ENSG00000168874, ENSG00000125845, ENSG00000111206, ENSG00000153071, ENSG00000166923, ENSG00000089685, ENSG00000168517</t>
+  </si>
+  <si>
+    <t>h_bcellsurvivalPathway:B Cell Survival Pathway</t>
+  </si>
+  <si>
+    <t>BIOCARTA</t>
+  </si>
+  <si>
+    <t>ENSG00000089685, ENSG00000170345</t>
+  </si>
+  <si>
+    <t>GO:0051607~defense response to virus</t>
+  </si>
+  <si>
+    <t>ENSG00000137033, ENSG00000089127, ENSG00000187908, ENSG00000168209</t>
+  </si>
+  <si>
+    <t>GO:0060384~innervation</t>
+  </si>
+  <si>
+    <t>ENSG00000130477, ENSG00000137573</t>
+  </si>
+  <si>
+    <t>GO:0004869~cysteine-type endopeptidase inhibitor activity</t>
+  </si>
+  <si>
+    <t>ENSG00000089685, ENSG00000164611</t>
+  </si>
+  <si>
+    <t>GO:0006366~transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>ENSG00000101096, ENSG00000111206, ENSG00000146592, ENSG00000105516, ENSG00000185697, ENSG00000120738, ENSG00000170345, ENSG00000162772, ENSG00000164611</t>
+  </si>
+  <si>
+    <t>GO:0005576~extracellular region</t>
+  </si>
+  <si>
+    <t>ENSG00000163814, ENSG00000099953, ENSG00000187908, ENSG00000138316, ENSG00000197632, ENSG00000115457, ENSG00000164761, ENSG00000165124, ENSG00000125845, ENSG00000137033, ENSG00000167772, ENSG00000089127, ENSG00000163898, ENSG00000109255, ENSG00000125730, ENSG00000183876</t>
+  </si>
+  <si>
+    <t>GO:0006954~inflammatory response</t>
+  </si>
+  <si>
+    <t>ENSG00000164761, ENSG00000125845, ENSG00000170345, ENSG00000171951, ENSG00000125730</t>
+  </si>
+  <si>
     <t>R-HSA-174800:R-HSA-174800</t>
   </si>
   <si>
-    <t>REACTOME_PATHWAY</t>
-  </si>
-  <si>
     <t>ENSG00000167772, ENSG00000099139</t>
-  </si>
-  <si>
-    <t>GO:0005125~cytokine activity</t>
-  </si>
-  <si>
-    <t>GOTERM_MF_DIRECT</t>
-  </si>
-  <si>
-    <t>ENSG00000164761, ENSG00000137033, ENSG00000125845, ENSG00000166923, ENSG00000171951</t>
-  </si>
-  <si>
-    <t>GO:0007399~nervous system development</t>
-  </si>
-  <si>
-    <t>ENSG00000105894, ENSG00000151892, ENSG00000168874, ENSG00000108947, ENSG00000170345</t>
-  </si>
-  <si>
-    <t>GO:0004745~retinol dehydrogenase activity</t>
-  </si>
-  <si>
-    <t>ENSG00000121039, ENSG00000125845</t>
-  </si>
-  <si>
-    <t>GO:0005615~extracellular space</t>
-  </si>
-  <si>
-    <t>GOTERM_CC_DIRECT</t>
-  </si>
-  <si>
-    <t>ENSG00000105894, ENSG00000154175, ENSG00000099139, ENSG00000187908, ENSG00000197632, ENSG00000115457, ENSG00000171951, ENSG00000205426, ENSG00000164761, ENSG00000137573, ENSG00000125845, ENSG00000137033, ENSG00000167772, ENSG00000169067, ENSG00000163898, ENSG00000102854, ENSG00000166923, ENSG00000125730</t>
-  </si>
-  <si>
-    <t>GO:0060395~SMAD protein signal transduction</t>
-  </si>
-  <si>
-    <t>ENSG00000168874, ENSG00000125845, ENSG00000170345</t>
-  </si>
-  <si>
-    <t>GO:0004861~cyclin-dependent protein serine/threonine kinase inhibitor activity</t>
-  </si>
-  <si>
-    <t>ENSG00000123080, ENSG00000168517</t>
-  </si>
-  <si>
-    <t>GO:0001937~negative regulation of endothelial cell proliferation</t>
-  </si>
-  <si>
-    <t>ENSG00000168874, ENSG00000137573, ENSG00000171951</t>
-  </si>
-  <si>
-    <t>GO:0001077~transcriptional activator activity, RNA polymerase II core promoter proximal region sequence-specific binding</t>
-  </si>
-  <si>
-    <t>ENSG00000101096, ENSG00000105516, ENSG00000185697, ENSG00000120738, ENSG00000170345</t>
-  </si>
-  <si>
-    <t>R-HSA-2559580:R-HSA-2559580</t>
-  </si>
-  <si>
-    <t>ENSG00000123080, ENSG00000173894, ENSG00000170345</t>
-  </si>
-  <si>
-    <t>GO:0010951~negative regulation of endopeptidase activity</t>
-  </si>
-  <si>
-    <t>ENSG00000197632, ENSG00000164611, ENSG00000125730</t>
-  </si>
-  <si>
-    <t>hsa05161:Hepatitis B</t>
-  </si>
-  <si>
-    <t>ENSG00000101096, ENSG00000146592, ENSG00000089685, ENSG00000170345</t>
-  </si>
-  <si>
-    <t>R-HSA-156711:R-HSA-156711</t>
-  </si>
-  <si>
-    <t>ENSG00000111206, ENSG00000157456</t>
-  </si>
-  <si>
-    <t>GO:0045944~positive regulation of transcription from RNA polymerase II promoter</t>
-  </si>
-  <si>
-    <t>ENSG00000101096, ENSG00000137033, ENSG00000125845, ENSG00000111206, ENSG00000105516, ENSG00000185697, ENSG00000166923, ENSG00000120738, ENSG00000170345, ENSG00000162772</t>
-  </si>
-  <si>
-    <t>GO:0030199~collagen fibril organization</t>
-  </si>
-  <si>
-    <t>ENSG00000099953, ENSG00000166923, ENSG00000138316</t>
-  </si>
-  <si>
-    <t>GO:0035914~skeletal muscle cell differentiation</t>
-  </si>
-  <si>
-    <t>ENSG00000120738, ENSG00000170345, ENSG00000162772</t>
-  </si>
-  <si>
-    <t>GO:0007267~cell-cell signaling</t>
-  </si>
-  <si>
-    <t>ENSG00000108947, ENSG00000125845, ENSG00000099139, ENSG00000166923</t>
-  </si>
-  <si>
-    <t>GO:0001666~response to hypoxia</t>
-  </si>
-  <si>
-    <t>ENSG00000167772, ENSG00000125845, ENSG00000120738, ENSG00000168209</t>
-  </si>
-  <si>
-    <t>GO:0035860~glial cell-derived neurotrophic factor receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>ENSG00000151892, ENSG00000137573</t>
-  </si>
-  <si>
-    <t>GO:0060337~type I interferon signaling pathway</t>
-  </si>
-  <si>
-    <t>ENSG00000126709, ENSG00000089127, ENSG00000120738</t>
-  </si>
-  <si>
-    <t>GO:0008284~positive regulation of cell proliferation</t>
-  </si>
-  <si>
-    <t>ENSG00000105894, ENSG00000117399, ENSG00000111206, ENSG00000166923, ENSG00000089685, ENSG00000162772</t>
-  </si>
-  <si>
-    <t>GO:0008484~sulfuric ester hydrolase activity</t>
-  </si>
-  <si>
-    <t>ENSG00000137573, ENSG00000183876</t>
-  </si>
-  <si>
-    <t>GO:0005102~receptor binding</t>
-  </si>
-  <si>
-    <t>ENSG00000151892, ENSG00000125845, ENSG00000131094, ENSG00000109255, ENSG00000115457, ENSG00000125730</t>
-  </si>
-  <si>
-    <t>R-HSA-909733:R-HSA-909733</t>
-  </si>
-  <si>
-    <t>GO:0042493~response to drug</t>
-  </si>
-  <si>
-    <t>ENSG00000105894, ENSG00000101096, ENSG00000164761, ENSG00000115457, ENSG00000170345, ENSG00000171303</t>
-  </si>
-  <si>
-    <t>GO:0005578~proteinaceous extracellular matrix</t>
-  </si>
-  <si>
-    <t>ENSG00000164761, ENSG00000167772, ENSG00000125966, ENSG00000099953, ENSG00000138316</t>
-  </si>
-  <si>
-    <t>GO:0004065~arylsulfatase activity</t>
-  </si>
-  <si>
-    <t>GO:0045893~positive regulation of transcription, DNA-templated</t>
-  </si>
-  <si>
-    <t>ENSG00000101096, ENSG00000168874, ENSG00000125845, ENSG00000111206, ENSG00000146592, ENSG00000153071, ENSG00000185697, ENSG00000120738, ENSG00000170345</t>
-  </si>
-  <si>
-    <t>GO:0044849~estrous cycle</t>
-  </si>
-  <si>
-    <t>ENSG00000105894, ENSG00000120738</t>
-  </si>
-  <si>
-    <t>GO:0045892~negative regulation of transcription, DNA-templated</t>
-  </si>
-  <si>
-    <t>ENSG00000168874, ENSG00000125845, ENSG00000111206, ENSG00000153071, ENSG00000166923, ENSG00000089685, ENSG00000168517</t>
-  </si>
-  <si>
-    <t>h_bcellsurvivalPathway:B Cell Survival Pathway</t>
-  </si>
-  <si>
-    <t>BIOCARTA</t>
-  </si>
-  <si>
-    <t>ENSG00000089685, ENSG00000170345</t>
-  </si>
-  <si>
-    <t>GO:0051607~defense response to virus</t>
-  </si>
-  <si>
-    <t>ENSG00000137033, ENSG00000089127, ENSG00000187908, ENSG00000168209</t>
-  </si>
-  <si>
-    <t>GO:0060384~innervation</t>
-  </si>
-  <si>
-    <t>ENSG00000130477, ENSG00000137573</t>
-  </si>
-  <si>
-    <t>GO:0004869~cysteine-type endopeptidase inhibitor activity</t>
-  </si>
-  <si>
-    <t>ENSG00000089685, ENSG00000164611</t>
-  </si>
-  <si>
-    <t>GO:0006366~transcription from RNA polymerase II promoter</t>
-  </si>
-  <si>
-    <t>ENSG00000101096, ENSG00000111206, ENSG00000146592, ENSG00000105516, ENSG00000185697, ENSG00000120738, ENSG00000170345, ENSG00000162772, ENSG00000164611</t>
-  </si>
-  <si>
-    <t>GO:0005576~extracellular region</t>
-  </si>
-  <si>
-    <t>ENSG00000163814, ENSG00000099953, ENSG00000187908, ENSG00000138316, ENSG00000197632, ENSG00000115457, ENSG00000164761, ENSG00000165124, ENSG00000125845, ENSG00000137033, ENSG00000167772, ENSG00000089127, ENSG00000163898, ENSG00000109255, ENSG00000125730, ENSG00000183876</t>
-  </si>
-  <si>
-    <t>GO:0006954~inflammatory response</t>
-  </si>
-  <si>
-    <t>ENSG00000164761, ENSG00000125845, ENSG00000170345, ENSG00000171951, ENSG00000125730</t>
-  </si>
-  <si>
-    <t>GO:0031594~neuromuscular junction</t>
-  </si>
-  <si>
-    <t>ENSG00000105894, ENSG00000130477, ENSG00000116396</t>
   </si>
   <si>
     <t>Other</t>
@@ -715,13 +715,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -806,205 +805,241 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>20.689655172413701</v>
+        <v>4.59770114942528</v>
       </c>
       <c r="E2">
-        <v>3.1553643719040997E-5</v>
+        <v>2.7043183201025601E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>932</v>
+        <v>120</v>
       </c>
       <c r="I2">
-        <v>13819</v>
+        <v>5293</v>
       </c>
       <c r="J2">
-        <v>3.1772685469037398</v>
+        <v>5.8811111111111103</v>
       </c>
       <c r="K2">
-        <v>3.68502811830717E-3</v>
+        <v>0.90792532971392004</v>
       </c>
       <c r="L2">
-        <v>3.6917763151278001E-3</v>
+        <v>0.96333787761981604</v>
       </c>
       <c r="M2">
-        <v>0.36917763151277999</v>
+        <v>96.333787761981597</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>34</v>
+      </c>
+      <c r="P2">
+        <v>17</v>
+      </c>
+      <c r="Q2">
+        <v>8.7745228096401994E-33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>110</v>
+      </c>
+      <c r="T2">
+        <v>124</v>
+      </c>
+      <c r="U2">
+        <v>6879</v>
+      </c>
+      <c r="V2">
+        <v>17.1470674486803</v>
+      </c>
+      <c r="W2">
+        <v>7.5460896162905704E-31</v>
+      </c>
+      <c r="X2">
+        <v>7.5460896162905704E-31</v>
+      </c>
+      <c r="Y2">
+        <v>6.0544207386517402E-29</v>
       </c>
       <c r="Z2" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>18.390804597701099</v>
+        <v>8.0459770114942497</v>
       </c>
       <c r="E3">
-        <v>7.0262553245092104E-4</v>
+        <v>1.1511790132076999E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>986</v>
+        <v>225</v>
       </c>
       <c r="I3">
-        <v>13819</v>
+        <v>5293</v>
       </c>
       <c r="J3">
-        <v>2.6695643774751199</v>
+        <v>5.4890370370370301</v>
       </c>
       <c r="K3">
-        <v>7.8945510683081199E-2</v>
+        <v>9.53528177833107E-2</v>
       </c>
       <c r="L3">
-        <v>4.1103593648378803E-2</v>
+        <v>0.10015257414907</v>
       </c>
       <c r="M3">
-        <v>4.1103593648378798</v>
+        <v>10.015257414907</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3">
+        <v>21</v>
+      </c>
+      <c r="P3">
+        <v>10.5</v>
+      </c>
+      <c r="Q3">
+        <v>1.9976222657498198E-9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3">
+        <v>110</v>
+      </c>
+      <c r="T3">
+        <v>254</v>
+      </c>
+      <c r="U3">
+        <v>6879</v>
+      </c>
+      <c r="V3">
+        <v>5.1703292770221898</v>
+      </c>
+      <c r="W3">
+        <v>1.7179550237944501E-7</v>
+      </c>
+      <c r="X3">
+        <v>2.8632585809080801E-8</v>
+      </c>
+      <c r="Y3">
+        <v>2.2972656056122999E-6</v>
       </c>
       <c r="Z3" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>8.0459770114942497</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E4">
-        <v>1.1511790132076999E-3</v>
+        <v>9.8500377276896593E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="H4">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="I4">
-        <v>5293</v>
+        <v>12969</v>
       </c>
       <c r="J4">
-        <v>5.4890370370370301</v>
+        <v>5.8891108891108797</v>
       </c>
       <c r="K4">
-        <v>9.53528177833107E-2</v>
+        <v>0.99746843515207795</v>
       </c>
       <c r="L4">
-        <v>0.10015257414907</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>10.015257414907</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4">
-        <v>21</v>
-      </c>
-      <c r="P4">
-        <v>10.5</v>
-      </c>
-      <c r="Q4">
-        <v>1.9976222657498198E-9</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4">
-        <v>110</v>
-      </c>
-      <c r="T4">
-        <v>254</v>
-      </c>
-      <c r="U4">
-        <v>6879</v>
-      </c>
-      <c r="V4">
-        <v>5.1703292770221898</v>
-      </c>
-      <c r="W4">
-        <v>1.7179550237944501E-7</v>
-      </c>
-      <c r="X4">
-        <v>2.8632585809080801E-8</v>
-      </c>
-      <c r="Y4">
-        <v>2.2972656056122999E-6</v>
+        <v>100</v>
       </c>
       <c r="Z4" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>5.7471264367816</v>
+        <v>3.44827586206896</v>
       </c>
       <c r="E5">
-        <v>7.1806893058182601E-3</v>
+        <v>3.8941133074670599E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H5">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="I5">
-        <v>13084</v>
+        <v>13819</v>
       </c>
       <c r="J5">
-        <v>6.4612345679012302</v>
+        <v>9.4910714285714199</v>
       </c>
       <c r="K5">
-        <v>0.78609242116737199</v>
+        <v>0.99041154079585303</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1018,37 +1053,37 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>10.344827586206801</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E6">
-        <v>3.2050628883423002E-3</v>
+        <v>7.1806893058182601E-3</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H6">
-        <v>422</v>
+        <v>125</v>
       </c>
       <c r="I6">
-        <v>12969</v>
+        <v>13084</v>
       </c>
       <c r="J6">
-        <v>3.5920785375761599</v>
+        <v>6.4612345679012302</v>
       </c>
       <c r="K6">
-        <v>0.85614751331473204</v>
+        <v>0.78609242116737199</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1062,123 +1097,87 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>4.59770114942528</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E7">
-        <v>2.7043183201025601E-2</v>
+        <v>4.53344979361733E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="I7">
-        <v>5293</v>
+        <v>12969</v>
       </c>
       <c r="J7">
-        <v>5.8811111111111103</v>
+        <v>3.6774797255146598</v>
       </c>
       <c r="K7">
-        <v>0.90792532971392004</v>
+        <v>0.99999999999932299</v>
       </c>
       <c r="L7">
-        <v>0.96333787761981604</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>96.333787761981597</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7">
-        <v>34</v>
-      </c>
-      <c r="P7">
-        <v>17</v>
-      </c>
-      <c r="Q7">
-        <v>8.7745228096401994E-33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7">
-        <v>110</v>
-      </c>
-      <c r="T7">
-        <v>124</v>
-      </c>
-      <c r="U7">
-        <v>6879</v>
-      </c>
-      <c r="V7">
-        <v>17.1470674486803</v>
-      </c>
-      <c r="W7">
-        <v>7.5460896162905704E-31</v>
-      </c>
-      <c r="X7">
-        <v>7.5460896162905704E-31</v>
-      </c>
-      <c r="Y7">
-        <v>6.0544207386517402E-29</v>
+        <v>100</v>
       </c>
       <c r="Z7" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>4.59770114942528</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E8">
-        <v>3.3218547504131599E-2</v>
+        <v>7.6668627612348397E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="H8">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>5293</v>
+        <v>13084</v>
       </c>
       <c r="J8">
-        <v>5.4287179487179396</v>
+        <v>24.850902184235501</v>
       </c>
       <c r="K8">
-        <v>0.94708692914131598</v>
+        <v>0.99999996140556402</v>
       </c>
       <c r="L8">
-        <v>0.96333787761981604</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>96.333787761981597</v>
+        <v>100</v>
       </c>
       <c r="Z8" t="s">
         <v>114</v>
@@ -1186,43 +1185,43 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>10.344827586206801</v>
+        <v>20.689655172413701</v>
       </c>
       <c r="E9">
-        <v>5.1087817036331298E-3</v>
+        <v>3.1553643719040997E-5</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H9">
-        <v>456</v>
+        <v>932</v>
       </c>
       <c r="I9">
-        <v>12969</v>
+        <v>13819</v>
       </c>
       <c r="J9">
-        <v>3.3242481203007501</v>
+        <v>3.1772685469037398</v>
       </c>
       <c r="K9">
-        <v>0.95466215623252804</v>
+        <v>3.68502811830717E-3</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>3.6917763151278001E-3</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>0.36917763151277999</v>
       </c>
       <c r="Z9" t="s">
         <v>114</v>
@@ -1230,7 +1229,7 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -1242,25 +1241,25 @@
         <v>3.44827586206896</v>
       </c>
       <c r="E10">
-        <v>6.0139282875723704E-3</v>
+        <v>3.5918849743454502E-2</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>77</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I10">
         <v>12969</v>
       </c>
       <c r="J10">
-        <v>25.264285714285698</v>
+        <v>9.9075630252100808</v>
       </c>
       <c r="K10">
-        <v>0.97383621850895496</v>
+        <v>0.99999999974613096</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1274,37 +1273,37 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>5.7471264367816</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E11">
-        <v>3.7581307922954998E-2</v>
+        <v>6.5262982407292003E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="G11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H11">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>13819</v>
+        <v>13084</v>
       </c>
       <c r="J11">
-        <v>3.9169501133786802</v>
+        <v>29.369248035914701</v>
       </c>
       <c r="K11">
-        <v>0.98868658378497698</v>
+        <v>0.99999946600081602</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1318,37 +1317,37 @@
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>2.29885057471264</v>
+        <v>3.44827586206896</v>
       </c>
       <c r="E12">
-        <v>9.0600963070554999E-2</v>
+        <v>6.0139282875723704E-3</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I12">
-        <v>1433</v>
+        <v>12969</v>
       </c>
       <c r="J12">
-        <v>19.106666666666602</v>
+        <v>25.264285714285698</v>
       </c>
       <c r="K12">
-        <v>0.98952351688719098</v>
+        <v>0.97383621850895496</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1362,37 +1361,37 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>3.44827586206896</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E13">
-        <v>3.8941133074670599E-2</v>
+        <v>2.9480608192346401E-2</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H13">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="I13">
-        <v>13819</v>
+        <v>13084</v>
       </c>
       <c r="J13">
-        <v>9.4910714285714199</v>
+        <v>4.2285566543856197</v>
       </c>
       <c r="K13">
-        <v>0.99041154079585303</v>
+        <v>0.99834460163974703</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1406,10 +1405,10 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1418,25 +1417,25 @@
         <v>3.44827586206896</v>
       </c>
       <c r="E14">
-        <v>4.96786060935928E-2</v>
+        <v>5.6314141061325602E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>48</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I14">
         <v>7207</v>
       </c>
       <c r="J14">
-        <v>8.1897727272727199</v>
+        <v>7.6345338983050803</v>
       </c>
       <c r="K14">
-        <v>0.99209870818095502</v>
+        <v>0.99593923846544397</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1450,10 +1449,10 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1462,25 +1461,25 @@
         <v>3.44827586206896</v>
       </c>
       <c r="E15">
-        <v>5.6314141061325602E-2</v>
+        <v>9.4042676771973102E-2</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H15">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I15">
-        <v>7207</v>
+        <v>12969</v>
       </c>
       <c r="J15">
-        <v>7.6345338983050803</v>
+        <v>5.7418831168831099</v>
       </c>
       <c r="K15">
-        <v>0.99593923846544397</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1494,43 +1493,43 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>6.8965517241379297</v>
+        <v>4.59770114942528</v>
       </c>
       <c r="E16">
-        <v>2.6145220229162901E-2</v>
+        <v>3.3218547504131599E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G16">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="I16">
-        <v>13084</v>
+        <v>5293</v>
       </c>
       <c r="J16">
-        <v>3.5371722087050501</v>
+        <v>5.4287179487179396</v>
       </c>
       <c r="K16">
-        <v>0.99655047867806801</v>
+        <v>0.94708692914131598</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.96333787761981604</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>96.333787761981597</v>
       </c>
       <c r="Z16" t="s">
         <v>114</v>
@@ -1538,37 +1537,37 @@
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>5.7471264367816</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E17">
-        <v>9.8500377276896593E-3</v>
+        <v>9.3566571147027905E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G17">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H17">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="I17">
-        <v>12969</v>
+        <v>7207</v>
       </c>
       <c r="J17">
-        <v>5.8891108891108797</v>
+        <v>20.0194444444444</v>
       </c>
       <c r="K17">
-        <v>0.99746843515207795</v>
+        <v>0.99991150641186699</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1582,37 +1581,37 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>5.7471264367816</v>
+        <v>11.4942528735632</v>
       </c>
       <c r="E18">
-        <v>2.9480608192346401E-2</v>
+        <v>4.2154163687026097E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G18">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H18">
-        <v>191</v>
+        <v>795</v>
       </c>
       <c r="I18">
-        <v>13084</v>
+        <v>12969</v>
       </c>
       <c r="J18">
-        <v>4.2285566543856197</v>
+        <v>2.1185983827493202</v>
       </c>
       <c r="K18">
-        <v>0.99834460163974703</v>
+        <v>0.99999999999495803</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1626,37 +1625,37 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>2.29885057471264</v>
+        <v>3.44827586206896</v>
       </c>
       <c r="E19">
-        <v>9.3566571147027905E-2</v>
+        <v>1.59124848086112E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G19">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I19">
-        <v>7207</v>
+        <v>12969</v>
       </c>
       <c r="J19">
-        <v>20.0194444444444</v>
+        <v>15.3116883116883</v>
       </c>
       <c r="K19">
-        <v>0.99991150641186699</v>
+        <v>0.99993800336198402</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1670,7 +1669,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -1682,25 +1681,25 @@
         <v>3.44827586206896</v>
       </c>
       <c r="E20">
-        <v>1.59124848086112E-2</v>
+        <v>1.8773546862094499E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <v>77</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I20">
         <v>12969</v>
       </c>
       <c r="J20">
-        <v>15.3116883116883</v>
+        <v>14.035714285714199</v>
       </c>
       <c r="K20">
-        <v>0.99993800336198402</v>
+        <v>0.99998931865945595</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1714,37 +1713,37 @@
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>2.29885057471264</v>
+        <v>4.59770114942528</v>
       </c>
       <c r="E21">
-        <v>9.9490148894165104E-2</v>
+        <v>7.1563887125326298E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G21">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I21">
-        <v>7207</v>
+        <v>12969</v>
       </c>
       <c r="J21">
-        <v>18.7682291666666</v>
+        <v>4.1080139372822302</v>
       </c>
       <c r="K21">
-        <v>0.99995253161316799</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1758,37 +1757,37 @@
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>6.8965517241379297</v>
+        <v>4.59770114942528</v>
       </c>
       <c r="E22">
-        <v>1.6577697574702E-2</v>
+        <v>5.1540462550434998E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>77</v>
       </c>
       <c r="H22">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="I22">
         <v>12969</v>
       </c>
       <c r="J22">
-        <v>3.9786276715410498</v>
+        <v>4.7112887112887103</v>
       </c>
       <c r="K22">
-        <v>0.99995879099680596</v>
+        <v>0.99999999999998601</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1802,37 +1801,37 @@
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>3.44827586206896</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E23">
-        <v>1.8773546862094499E-2</v>
+        <v>2.32379334150602E-2</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>77</v>
       </c>
       <c r="H23">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>12969</v>
       </c>
       <c r="J23">
-        <v>14.035714285714199</v>
+        <v>84.214285714285694</v>
       </c>
       <c r="K23">
-        <v>0.99998931865945595</v>
+        <v>0.99999932012953696</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1846,37 +1845,37 @@
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>2.29885057471264</v>
+        <v>3.44827586206896</v>
       </c>
       <c r="E24">
-        <v>2.32379334150602E-2</v>
+        <v>3.7216486222019E-2</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G24">
         <v>77</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I24">
         <v>12969</v>
       </c>
       <c r="J24">
-        <v>84.214285714285694</v>
+        <v>9.71703296703296</v>
       </c>
       <c r="K24">
-        <v>0.99999932012953696</v>
+        <v>0.99999999988746102</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -1890,51 +1889,51 @@
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>2.29885057471264</v>
+        <v>6.8965517241379297</v>
       </c>
       <c r="E25">
-        <v>6.5262982407292003E-2</v>
+        <v>6.10178471295275E-2</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G25">
+        <v>77</v>
+      </c>
+      <c r="H25">
+        <v>362</v>
+      </c>
+      <c r="I25">
+        <v>12969</v>
+      </c>
+      <c r="J25">
+        <v>2.7916337805840499</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>81</v>
-      </c>
-      <c r="H25">
-        <v>11</v>
-      </c>
-      <c r="I25">
-        <v>13084</v>
-      </c>
-      <c r="J25">
-        <v>29.369248035914701</v>
-      </c>
-      <c r="K25">
-        <v>0.99999946600081602</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>100</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -1946,7 +1945,7 @@
         <v>2.29885057471264</v>
       </c>
       <c r="E26">
-        <v>6.5262982407292003E-2</v>
+        <v>8.2319802716436602E-2</v>
       </c>
       <c r="F26" t="s">
         <v>82</v>
@@ -1955,16 +1954,16 @@
         <v>81</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I26">
         <v>13084</v>
       </c>
       <c r="J26">
-        <v>29.369248035914701</v>
+        <v>23.075837742504401</v>
       </c>
       <c r="K26">
-        <v>0.99999946600081602</v>
+        <v>0.99999998962588399</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -1976,39 +1975,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>2.29885057471264</v>
+        <v>6.8965517241379297</v>
       </c>
       <c r="E27">
-        <v>7.6668627612348397E-2</v>
+        <v>2.6145220229162901E-2</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G27">
         <v>81</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="I27">
         <v>13084</v>
       </c>
       <c r="J27">
-        <v>24.850902184235501</v>
+        <v>3.5371722087050501</v>
       </c>
       <c r="K27">
-        <v>0.99999996140556402</v>
+        <v>0.99655047867806801</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2020,39 +2019,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>2.29885057471264</v>
+        <v>3.44827586206896</v>
       </c>
       <c r="E28">
-        <v>8.2319802716436602E-2</v>
+        <v>4.96786060935928E-2</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G28">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I28">
-        <v>13084</v>
+        <v>7207</v>
       </c>
       <c r="J28">
-        <v>23.075837742504401</v>
+        <v>8.1897727272727199</v>
       </c>
       <c r="K28">
-        <v>0.99999998962588399</v>
+        <v>0.99209870818095502</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2064,39 +2063,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>8.0459770114942497</v>
+        <v>6.8965517241379297</v>
       </c>
       <c r="E29">
-        <v>3.32257905104184E-2</v>
+        <v>1.6577697574702E-2</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G29">
         <v>77</v>
       </c>
       <c r="H29">
-        <v>411</v>
+        <v>254</v>
       </c>
       <c r="I29">
         <v>12969</v>
       </c>
       <c r="J29">
-        <v>2.86861313868613</v>
+        <v>3.9786276715410498</v>
       </c>
       <c r="K29">
-        <v>0.99999999863121802</v>
+        <v>0.99995879099680596</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2108,39 +2107,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>3.44827586206896</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E30">
-        <v>3.5918849743454502E-2</v>
+        <v>3.7581307922954998E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="G30">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H30">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="I30">
-        <v>12969</v>
+        <v>13819</v>
       </c>
       <c r="J30">
-        <v>9.9075630252100808</v>
+        <v>3.9169501133786802</v>
       </c>
       <c r="K30">
-        <v>0.99999999974613096</v>
+        <v>0.98868658378497698</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2152,9 +2151,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -2166,25 +2165,25 @@
         <v>2.29885057471264</v>
       </c>
       <c r="E31">
-        <v>9.9069195310893199E-2</v>
+        <v>6.5262982407292003E-2</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="G31">
         <v>81</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I31">
         <v>13084</v>
       </c>
       <c r="J31">
-        <v>19.003631082062402</v>
+        <v>29.369248035914701</v>
       </c>
       <c r="K31">
-        <v>0.99999999979864196</v>
+        <v>0.99999946600081602</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2196,39 +2195,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>4.59770114942528</v>
+        <v>10.344827586206801</v>
       </c>
       <c r="E32">
-        <v>3.69458572910338E-2</v>
+        <v>5.1087817036331298E-3</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G32">
         <v>77</v>
       </c>
       <c r="H32">
-        <v>125</v>
+        <v>456</v>
       </c>
       <c r="I32">
         <v>12969</v>
       </c>
       <c r="J32">
-        <v>5.3897142857142804</v>
+        <v>3.3242481203007501</v>
       </c>
       <c r="K32">
-        <v>0.99999999986664001</v>
+        <v>0.95466215623252804</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2240,39 +2239,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>3.44827586206896</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E33">
-        <v>3.7216486222019E-2</v>
+        <v>9.5141850175178802E-2</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G33">
         <v>77</v>
       </c>
       <c r="H33">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I33">
         <v>12969</v>
       </c>
       <c r="J33">
-        <v>9.71703296703296</v>
+        <v>19.815126050420101</v>
       </c>
       <c r="K33">
-        <v>0.99999999988746102</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2284,39 +2283,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>11.4942528735632</v>
+        <v>8.0459770114942497</v>
       </c>
       <c r="E34">
-        <v>4.2154163687026097E-2</v>
+        <v>3.32257905104184E-2</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="G34">
         <v>77</v>
       </c>
       <c r="H34">
-        <v>795</v>
+        <v>411</v>
       </c>
       <c r="I34">
         <v>12969</v>
       </c>
       <c r="J34">
-        <v>2.1185983827493202</v>
+        <v>2.86861313868613</v>
       </c>
       <c r="K34">
-        <v>0.99999999999495803</v>
+        <v>0.99999999863121802</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -2328,39 +2327,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>5.7471264367816</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E35">
-        <v>4.53344979361733E-2</v>
+        <v>9.0600963070554999E-2</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="G35">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="H35">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>12969</v>
+        <v>1433</v>
       </c>
       <c r="J35">
-        <v>3.6774797255146598</v>
+        <v>19.106666666666602</v>
       </c>
       <c r="K35">
-        <v>0.99999999999932299</v>
+        <v>0.98952351688719098</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2372,9 +2371,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -2386,25 +2385,25 @@
         <v>4.59770114942528</v>
       </c>
       <c r="E36">
-        <v>5.1540462550434998E-2</v>
+        <v>3.69458572910338E-2</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="G36">
         <v>77</v>
       </c>
       <c r="H36">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="I36">
         <v>12969</v>
       </c>
       <c r="J36">
-        <v>4.7112887112887103</v>
+        <v>5.3897142857142804</v>
       </c>
       <c r="K36">
-        <v>0.99999999999998601</v>
+        <v>0.99999999986664001</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2416,36 +2415,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>3.44827586206896</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E37">
-        <v>9.4042676771973102E-2</v>
+        <v>8.4429809883401194E-2</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="G37">
         <v>77</v>
       </c>
       <c r="H37">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="I37">
         <v>12969</v>
       </c>
       <c r="J37">
-        <v>5.7418831168831099</v>
+        <v>22.457142857142799</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2460,39 +2459,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>4.59770114942528</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E38">
-        <v>7.1563887125326298E-2</v>
+        <v>9.9069195310893199E-2</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G38">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H38">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="I38">
-        <v>12969</v>
+        <v>13084</v>
       </c>
       <c r="J38">
-        <v>4.1080139372822302</v>
+        <v>19.003631082062402</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0.99999999979864196</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2506,37 +2505,37 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>6.8965517241379297</v>
+        <v>10.344827586206801</v>
       </c>
       <c r="E39">
-        <v>6.10178471295275E-2</v>
+        <v>3.2050628883423002E-3</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G39">
         <v>77</v>
       </c>
       <c r="H39">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="I39">
         <v>12969</v>
       </c>
       <c r="J39">
-        <v>2.7916337805840499</v>
+        <v>3.5920785375761599</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0.85614751331473204</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2550,43 +2549,43 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>2.29885057471264</v>
+        <v>18.390804597701099</v>
       </c>
       <c r="E40">
-        <v>9.5141850175178802E-2</v>
+        <v>7.0262553245092104E-4</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G40">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H40">
-        <v>17</v>
+        <v>986</v>
       </c>
       <c r="I40">
-        <v>12969</v>
+        <v>13819</v>
       </c>
       <c r="J40">
-        <v>19.815126050420101</v>
+        <v>2.6695643774751199</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>7.8945510683081199E-2</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>4.1103593648378803E-2</v>
       </c>
       <c r="M40">
-        <v>100</v>
+        <v>4.1103593648378798</v>
       </c>
       <c r="Z40" t="s">
         <v>114</v>
@@ -2594,34 +2593,34 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>2.29885057471264</v>
+        <v>5.7471264367816</v>
       </c>
       <c r="E41">
-        <v>8.4429809883401194E-2</v>
+        <v>8.6875128116169903E-2</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G41">
         <v>77</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="I41">
         <v>12969</v>
       </c>
       <c r="J41">
-        <v>22.457142857142799</v>
+        <v>2.9445554445554398</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -2638,37 +2637,37 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>5.7471264367816</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="E42">
-        <v>8.6875128116169903E-2</v>
+        <v>9.9490148894165104E-2</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G42">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H42">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I42">
-        <v>12969</v>
+        <v>7207</v>
       </c>
       <c r="J42">
-        <v>2.9445554445554398</v>
+        <v>18.7682291666666</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0.99995253161316799</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2681,9 +2680,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Z42">
-    <sortCondition ref="K1"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>